--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961919.5061111975</v>
+        <v>-963807.0876275991</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>246.7134733806374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>79.70388913083498</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>22.99033455509908</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>408.1809152790349</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>330.928056639124</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.357987380643406</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>88.18421182873905</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>83.62890669057602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>74.80411717320231</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>149.648246970083</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>115.9486844368457</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.65479509797169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>96.45266989055067</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498028</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.71361063512649</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>51.33757195521468</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.97444673954853</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>172.7067178467376</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>237.3965091869244</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>91.82471917434958</v>
+        <v>19.6740284688319</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965558</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180124</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437447</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897935</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571522</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523602</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550465</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298325</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941846</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>461.6466807043969</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>134.4519607403998</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941846</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>704.9064240497687</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>415.489254012808</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1012.446666000031</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>626.6584134017862</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>619.7129126525828</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.974595209434</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="6">
@@ -4635,40 +4635,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
         <v>190.2718927217162</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>721.7067747310371</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>573.5601161652211</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>359.2716929833838</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2716929833838</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2716929833838</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2716929833838</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2716929833838</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.0907985422234</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>538.1282816018118</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="D8" t="n">
-        <v>538.1282816018118</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="E8" t="n">
-        <v>152.3400290035675</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>700.9324802434539</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>282.9686721416408</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843237</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582157</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>1293.690638606345</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>581.5921817905153</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>354.283994459117</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>354.283994459117</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6010158349783</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,22 +5200,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229243</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793941</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5285,40 +5285,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>896.5552164996831</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>727.6190335717762</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>577.5023941594404</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>429.5893005770473</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>282.699353079137</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471171</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473461</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T16" t="n">
-        <v>1247.140127185365</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0114883989231</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="V16" t="n">
-        <v>958.0114883989231</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="W16" t="n">
-        <v>668.5943183619627</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619627</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>1078.203681329923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,7 +5698,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
@@ -5707,16 +5707,16 @@
         <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,10 +5978,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,28 +5990,28 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,19 +6215,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1124.545030325235</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>835.4163915387937</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>835.4163915387937</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018332</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.4517433652428</v>
+        <v>565.420029503089</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749907</v>
+        <v>545.547273473966</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440254</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430027</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264628</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276541</v>
+        <v>247.6479607276532</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569679</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.45090536675</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962039</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056072</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899268</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167067</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661996</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981889</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652428</v>
+        <v>730.4517433652483</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652428</v>
+        <v>565.420029503089</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,22 +6920,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,16 +7257,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,34 +7546,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7631,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>38.86002301949878</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>85.30006332127806</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.1771850839656</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>70.79415120807717</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,7 +23470,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>131.7799578282511</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.2099891031746</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338605</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>30.90698584635155</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.519121723829</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>48.84084321165165</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690364</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>20.21884529572149</v>
+        <v>92.36953600123874</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1219319.02315233</v>
+        <v>1219319.023152329</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1268277.563735769</v>
+        <v>1268277.56373577</v>
       </c>
     </row>
     <row r="12">
@@ -26314,7 +26314,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728566</v>
@@ -26323,13 +26323,13 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
         <v>156411.6238950835</v>
@@ -26341,19 +26341,19 @@
         <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284539</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086712</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284539</v>
+        <v>44162.60530284579</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600746</v>
+        <v>7916.731656007518</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020392</v>
+        <v>26081.35417020406</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
-      </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-656535.6520210182</v>
+        <v>-656535.6520210181</v>
       </c>
       <c r="C6" t="n">
-        <v>-66567.7728064736</v>
+        <v>-66567.77280647366</v>
       </c>
       <c r="D6" t="n">
         <v>-66567.77280647367</v>
       </c>
       <c r="E6" t="n">
-        <v>-468652.4701865367</v>
+        <v>-468749.9293125088</v>
       </c>
       <c r="F6" t="n">
-        <v>56507.56629035939</v>
+        <v>56410.10716438718</v>
       </c>
       <c r="G6" t="n">
-        <v>56507.56629035939</v>
+        <v>56410.10716438718</v>
       </c>
       <c r="H6" t="n">
-        <v>56507.56629035945</v>
+        <v>56410.10716438715</v>
       </c>
       <c r="I6" t="n">
-        <v>56507.56629035939</v>
+        <v>56410.10716438723</v>
       </c>
       <c r="J6" t="n">
-        <v>-119915.6529022336</v>
+        <v>-120013.1120282057</v>
       </c>
       <c r="K6" t="n">
-        <v>-4143.31306516417</v>
+        <v>-4161.806803099081</v>
       </c>
       <c r="L6" t="n">
-        <v>25814.82245463629</v>
+        <v>25814.82245463645</v>
       </c>
       <c r="M6" t="n">
-        <v>-98643.28597833382</v>
+        <v>-98643.28597833375</v>
       </c>
       <c r="N6" t="n">
-        <v>36157.72925550335</v>
+        <v>36157.7292555032</v>
       </c>
       <c r="O6" t="n">
-        <v>36157.72925550323</v>
+        <v>36157.72925550322</v>
       </c>
       <c r="P6" t="n">
-        <v>-8004.876047341968</v>
+        <v>-8004.876047342535</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,37 +26744,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010839</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>118.5594183903701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>72.22742711402627</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.1473087687289</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5.603254741760111</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>38.80304403934502</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.76476257427089</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>136.8508936293452</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>323.2471390511354</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>249.1186555911548</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.59857412854481</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>96.19685451317322</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.112426135792493e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28515,10 +28515,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="N16" t="n">
-        <v>5.972651706542819e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789704</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056096</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412229</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584673</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403575</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043152</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>334.5577682773024</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
